--- a/Team-Data/2011-12/3-26-2011-12.xlsx
+++ b/Team-Data/2011-12/3-26-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -753,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -765,7 +832,7 @@
         <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -774,40 +841,40 @@
         <v>14</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
         <v>24</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
         <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.551</v>
+        <v>0.542</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -869,85 +936,85 @@
         <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O3" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20.2</v>
+        <v>19.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T3" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="U3" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
         <v>7.2</v>
       </c>
       <c r="X3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE3" t="n">
         <v>12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
         <v>21</v>
@@ -959,13 +1026,13 @@
         <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,25 +1044,25 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
         <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.149</v>
+        <v>0.152</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
@@ -1048,7 +1115,7 @@
         <v>33.5</v>
       </c>
       <c r="J4" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.416</v>
@@ -1063,52 +1130,52 @@
         <v>0.3</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P4" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T4" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X4" t="n">
         <v>5.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.1</v>
+        <v>-13.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1141,28 +1208,28 @@
         <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
       </c>
       <c r="AR4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS4" t="n">
         <v>27</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1171,10 +1238,10 @@
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.784</v>
+        <v>0.8</v>
       </c>
       <c r="H5" t="n">
         <v>48.1</v>
@@ -1230,64 +1297,64 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
         <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.38</v>
+        <v>0.374</v>
       </c>
       <c r="O5" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="P5" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q5" t="n">
         <v>0.727</v>
       </c>
       <c r="R5" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="S5" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T5" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="U5" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
         <v>13.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
         <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1308,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>5</v>
@@ -1320,19 +1387,19 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS5" t="n">
         <v>6</v>
@@ -1347,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1490,7 +1557,7 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1508,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1523,10 +1590,10 @@
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>1.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
@@ -1687,16 +1754,16 @@
         <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
@@ -1720,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.54</v>
+        <v>0.531</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
@@ -1788,13 +1855,13 @@
         <v>20.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.326</v>
+        <v>0.323</v>
       </c>
       <c r="O8" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P8" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="Q8" t="n">
         <v>0.736</v>
@@ -1812,34 +1879,34 @@
         <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.4</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>14</v>
@@ -1863,13 +1930,13 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1884,25 +1951,25 @@
         <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="J9" t="n">
         <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,73 +2037,73 @@
         <v>13.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R9" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="T9" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="U9" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="V9" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>3.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
         <v>19.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -2069,10 +2136,10 @@
         <v>28</v>
       </c>
       <c r="AU9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV9" t="n">
         <v>27</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>28</v>
       </c>
       <c r="AW9" t="n">
         <v>25</v>
@@ -2084,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2224,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="AL10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM10" t="n">
         <v>7</v>
@@ -2233,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2254,10 +2321,10 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.54</v>
+        <v>0.531</v>
       </c>
       <c r="H11" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J11" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
@@ -2334,37 +2401,37 @@
         <v>19.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P11" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
         <v>11.6</v>
       </c>
       <c r="S11" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U11" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W11" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y11" t="n">
         <v>5.2</v>
@@ -2373,19 +2440,19 @@
         <v>20.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -2397,22 +2464,22 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>6</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>5</v>
       </c>
       <c r="AK11" t="n">
         <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>15</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>19</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>13</v>
@@ -2430,31 +2497,31 @@
         <v>17</v>
       </c>
       <c r="AT11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU11" t="n">
         <v>15</v>
       </c>
-      <c r="AU11" t="n">
-        <v>14</v>
-      </c>
       <c r="AV11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY11" t="n">
         <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2507,40 +2574,40 @@
         <v>80.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.371</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
         <v>20.4</v>
       </c>
       <c r="P12" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R12" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>18.1</v>
       </c>
       <c r="V12" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W12" t="n">
         <v>8</v>
@@ -2552,16 +2619,16 @@
         <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AA12" t="n">
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
         <v>24</v>
@@ -2573,19 +2640,19 @@
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2597,37 +2664,37 @@
         <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.571</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,46 +2753,46 @@
         <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L13" t="n">
         <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q13" t="n">
         <v>0.6879999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S13" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T13" t="n">
-        <v>41.9</v>
+        <v>42.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
         <v>13.3</v>
       </c>
       <c r="W13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X13" t="n">
         <v>4.7</v>
@@ -2734,22 +2801,22 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21.6</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>9</v>
@@ -2764,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>14</v>
@@ -2779,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2788,13 +2855,13 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC13" t="n">
         <v>12</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>18</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
         <v>22</v>
@@ -2958,13 +3025,13 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
         <v>15</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>21</v>
@@ -2988,7 +3055,7 @@
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
@@ -3155,7 +3222,7 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
@@ -3164,19 +3231,19 @@
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>15</v>
@@ -3185,7 +3252,7 @@
         <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
         <v>35</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.729</v>
+        <v>0.745</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="L16" t="n">
         <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O16" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P16" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.78</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S16" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T16" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U16" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
@@ -3283,13 +3350,13 @@
         <v>20.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
         <v>24</v>
@@ -3298,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3310,19 +3377,19 @@
         <v>4</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
         <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3331,19 +3398,19 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>28</v>
       </c>
       <c r="AS16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT16" t="n">
         <v>17</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3352,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -3396,91 +3463,91 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>0.449</v>
+        <v>0.458</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J17" t="n">
         <v>85.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L17" t="n">
         <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O17" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P17" t="n">
         <v>20.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="R17" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T17" t="n">
         <v>41.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
         <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>21</v>
@@ -3495,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>12</v>
@@ -3507,19 +3574,19 @@
         <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR17" t="n">
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
         <v>19</v>
@@ -3528,25 +3595,25 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
         <v>19</v>
@@ -3668,16 +3735,16 @@
         <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
@@ -3692,16 +3759,16 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3713,7 +3780,7 @@
         <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
@@ -3731,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="BC18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.314</v>
+        <v>0.32</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="J19" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L19" t="n">
         <v>8.1</v>
@@ -3790,25 +3857,25 @@
         <v>23.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O19" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P19" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.768</v>
+        <v>0.773</v>
       </c>
       <c r="R19" t="n">
         <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T19" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U19" t="n">
         <v>19.5</v>
@@ -3817,31 +3884,31 @@
         <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X19" t="n">
         <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA19" t="n">
         <v>19.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.4</v>
+        <v>-6.1</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3862,7 +3929,7 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
@@ -3874,10 +3941,10 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>10</v>
@@ -3895,7 +3962,7 @@
         <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>78.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L20" t="n">
         <v>3.8</v>
@@ -3972,31 +4039,31 @@
         <v>11.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.321</v>
+        <v>0.324</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P20" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.758</v>
+        <v>0.761</v>
       </c>
       <c r="R20" t="n">
         <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
         <v>20.9</v>
       </c>
       <c r="V20" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="W20" t="n">
         <v>7.1</v>
@@ -4008,19 +4075,19 @@
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.90000000000001</v>
+        <v>89</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4038,28 +4105,28 @@
         <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4071,22 +4138,22 @@
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX20" t="n">
         <v>19</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -4124,88 +4191,88 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
         <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.313</v>
+        <v>0.316</v>
       </c>
       <c r="O21" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="P21" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.747</v>
+        <v>0.744</v>
       </c>
       <c r="R21" t="n">
         <v>11.5</v>
       </c>
       <c r="S21" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T21" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U21" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V21" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="W21" t="n">
         <v>9.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>18</v>
@@ -4214,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,22 +4290,22 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
       </c>
       <c r="AP21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ21" t="n">
         <v>21</v>
@@ -4247,16 +4314,16 @@
         <v>14</v>
       </c>
       <c r="AS21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
@@ -4265,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4277,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4414,7 +4481,7 @@
         <v>9</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4432,13 +4499,13 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW22" t="n">
         <v>16</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4456,7 +4523,7 @@
         <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.64</v>
+        <v>0.633</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="J23" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O23" t="n">
         <v>15.2</v>
       </c>
       <c r="P23" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.645</v>
+        <v>0.643</v>
       </c>
       <c r="R23" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W23" t="n">
         <v>6.7</v>
@@ -4551,22 +4618,22 @@
         <v>4.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z23" t="n">
         <v>17.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4578,16 +4645,16 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,10 +4666,10 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,7 +4678,7 @@
         <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
         <v>10</v>
@@ -4620,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4641,7 +4708,7 @@
         <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>6.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
@@ -4763,7 +4830,7 @@
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
@@ -4796,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4951,10 +5018,10 @@
         <v>14</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
@@ -4975,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
         <v>21</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5127,19 +5194,19 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>14</v>
       </c>
       <c r="AM26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
         <v>19</v>
@@ -5148,7 +5215,7 @@
         <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5169,13 +5236,13 @@
         <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="n">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
       <c r="H27" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I27" t="n">
         <v>36.9</v>
       </c>
       <c r="J27" t="n">
-        <v>86.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L27" t="n">
         <v>6.4</v>
@@ -5246,7 +5313,7 @@
         <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O27" t="n">
         <v>17.7</v>
@@ -5258,10 +5325,10 @@
         <v>0.75</v>
       </c>
       <c r="R27" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="S27" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T27" t="n">
         <v>43.5</v>
@@ -5270,16 +5337,16 @@
         <v>18.8</v>
       </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
         <v>4.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
         <v>19.4</v>
@@ -5288,13 +5355,13 @@
         <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
@@ -5330,28 +5397,28 @@
         <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>19</v>
       </c>
       <c r="AR27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS27" t="n">
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5360,13 +5427,13 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5509,22 +5576,22 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR28" t="n">
         <v>26</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5533,13 +5600,13 @@
         <v>3</v>
       </c>
       <c r="AW28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX28" t="n">
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.32</v>
+        <v>0.327</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5598,70 +5665,70 @@
         <v>34.5</v>
       </c>
       <c r="J29" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K29" t="n">
         <v>0.44</v>
       </c>
       <c r="L29" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M29" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="O29" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P29" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R29" t="n">
         <v>10.4</v>
       </c>
       <c r="S29" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
         <v>15.4</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="AC29" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
@@ -5676,7 +5743,7 @@
         <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK29" t="n">
         <v>19</v>
@@ -5694,40 +5761,40 @@
         <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>13</v>
       </c>
       <c r="AV29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.54</v>
+        <v>0.531</v>
       </c>
       <c r="H30" t="n">
         <v>48.9</v>
       </c>
       <c r="I30" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J30" t="n">
         <v>84.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.309</v>
+        <v>0.307</v>
       </c>
       <c r="O30" t="n">
         <v>18.4</v>
       </c>
       <c r="P30" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R30" t="n">
         <v>12.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T30" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V30" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W30" t="n">
         <v>8.4</v>
@@ -5825,25 +5892,25 @@
         <v>5.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
         <v>22.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5861,10 +5928,10 @@
         <v>3</v>
       </c>
       <c r="AK30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
@@ -5888,19 +5955,19 @@
         <v>16</v>
       </c>
       <c r="AT30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.224</v>
+        <v>0.229</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K31" t="n">
         <v>0.436</v>
@@ -5974,28 +6041,28 @@
         <v>15.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.315</v>
+        <v>0.317</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T31" t="n">
         <v>41.6</v>
       </c>
       <c r="U31" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="V31" t="n">
         <v>15.3</v>
@@ -6013,16 +6080,16 @@
         <v>21.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6055,19 +6122,19 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
         <v>20</v>
@@ -6079,7 +6146,7 @@
         <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6091,7 +6158,7 @@
         <v>25</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-26-2011-12</t>
+          <t>2012-03-26</t>
         </is>
       </c>
     </row>
